--- a/Mobile.de/Data/Cars.xlsx
+++ b/Mobile.de/Data/Cars.xlsx
@@ -14,336 +14,441 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Audi A6 Ultra Avant*2,0TDI-140KW*NAVI*TEMPOMAT*SH*EU6</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Lim. 2x S Line Led Navi Sportsitze Privacy.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346778187&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346778187&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200 T CGI BlueEfficiency Leder Xenon Klima</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339006956&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200 Exclusive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345395803&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E-Klasse E 200 CGI, Kombi T Standard Navi Klima</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343517202&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Lim. 2.0 TFSI/Navi/Bi-Xenon/</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346500896&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346500896&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI XENON/LEDER/S-SITZE/NAVI/KAMERA</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348738223&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348738223&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200 T CDI Standheizung el.SD COMAND 7 Sitze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347599802&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra Xenon Navi Sitzheizung Pa</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348945232&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348945232&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI Pano,Xenon,HUD,Navi</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346079968&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345691986&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346079968&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345691986&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200 T CGI BlueEfficiency Elegance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=340364141&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant S-Line INDIVIDUAL|MATRIX|BOSE|KAMERA|RO</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347563593&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347563593&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=next&amp;searchId=9b2459e6-2941-ddd1-d604-7ed0d4e9afb3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TFSI 56oookm LEDER XENON</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347007359&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347007359&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Lim. 1.8 TFSI*S-Line*Xenon*Navi*Sitzh.*AHK</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347836029&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347836029&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200 BlueEFFICIENCY LEDER, NAVI, AMG, 92TKM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=276463450&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0TDI S-Line Xen Nav Luft Lane Bose 19</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348915922&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348915922&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200T CGI BlueEfficiency/Klima/Navi/Xenon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349429224&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI 3xS line Sport/Plus Leder+Bi-Xenon</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348011065&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348011065&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant NAVI+/SPURPKT/XENON/BOSE/AHK</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349754207&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349754207&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI Xenon*AHK*Navi*Bluetooth</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=342805811&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=1&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=next&amp;searchId=7609364c-7ba9-3527-4fa6-03eea01b1dad&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=342805811&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI XENON+NAVI+2xPDC+GRA+AHK+ALU</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347859050&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347859050&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra 0,99% Finanzierung!!!</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343786478&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343786478&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI Xenon, Navi, Leder</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=338503777&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=338503777&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 3.0 TDI S-tronic LEDER+BOSE+MATRIX</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347823569&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347823569&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1d01816e-9c9a-8d3e-13bc-ed12c55ceb19&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI*S-Line*Xenon+*Navi*Kamera*SHZ*MFL*ASS</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347788076&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347788076&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200 CGI T-Modell BlueEfficiency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346155936&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI Avant ultra XENON+AHK+KLIMA+PDC+TEMP+</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348566460&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348566460&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI DPF</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349360013&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349360013&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI | Navi | SHZ | Schaltgetriebe</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347666530&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347666530&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra Pano Bose MMI+ Xenon</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346788797&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346788797&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra NAVI*TEMPOMAT*KAMERA</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347939948&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347939948&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra Navi Plus Alcantara</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349726920&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=2&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=next&amp;searchId=aa9c2c82-3fe5-94eb-bda7-c3ac6518aeac&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349726920&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra 6-G. NAVI XENON PDC LEDER</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346968128&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=e73ea105-1af6-d964-8b60-53414c3c7ee3&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346968128&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=next&amp;searchId=1316b948-076b-f7c2-7655-9ec1f6139dfe&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra GRA Navi Xenon Kamera</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348167941&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=e73ea105-1af6-d964-8b60-53414c3c7ee3&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348167941&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=4&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=afde215c-6894-1041-48dd-b0ff0ee02ba6&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0TDI ultra Xenon Leder Navi SHZ PDC</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346899560&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=e73ea105-1af6-d964-8b60-53414c3c7ee3&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346899560&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=4&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=afde215c-6894-1041-48dd-b0ff0ee02ba6&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI LED Paket S line Navi Plus Sport 4xSH</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347776245&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=e73ea105-1af6-d964-8b60-53414c3c7ee3&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347776245&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=4&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=afde215c-6894-1041-48dd-b0ff0ee02ba6&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 220 Edition*LED*Navi*Leder*1Hand*19"Alu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339932008&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=4&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=afde215c-6894-1041-48dd-b0ff0ee02ba6&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra*TopZustand*19 Zoll*</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=341128844&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=e73ea105-1af6-d964-8b60-53414c3c7ee3&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=341128844&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=4&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=afde215c-6894-1041-48dd-b0ff0ee02ba6&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI Ultra Navi+Klima+SHZ+54tkm!</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343816651&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=e73ea105-1af6-d964-8b60-53414c3c7ee3&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343816651&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=5&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=09d0069c-2283-6191-3f67-b8f0103762bf&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339932008&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=4d9f228d-8000-6492-55ae-b23e6694ff02&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 1.8 TFSI -</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350058433&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=5&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=138687b3-05c3-d341-3a91-0d1ffe5cba7d&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350058433&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=4d9f228d-8000-6492-55ae-b23e6694ff02&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant S line 2.8 V6 FSI Alca+Sound+Standhzg+2</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346673139&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=5&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=138687b3-05c3-d341-3a91-0d1ffe5cba7d&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346673139&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=4d9f228d-8000-6492-55ae-b23e6694ff02&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 4G 2.0 TFSI /S-Line Fahrw/AHK/Nav/SHZ/Tempo.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347949192&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=5&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=138687b3-05c3-d341-3a91-0d1ffe5cba7d&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347949192&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=388f91a6-7bb8-43ac-e12e-72f5aa065ef0&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Lim. 2.0 TFSI, Xenon, Navi, 2 x PDC, 8 Räder</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345257485&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=5&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=138687b3-05c3-d341-3a91-0d1ffe5cba7d&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345257485&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=388f91a6-7bb8-43ac-e12e-72f5aa065ef0&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200*58600 km*LED*Leder*Navi*Kamera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=336673513&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=388f91a6-7bb8-43ac-e12e-72f5aa065ef0&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI ultra LED Navi Keyless Fernlichtass.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346827155&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=5&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=138687b3-05c3-d341-3a91-0d1ffe5cba7d&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346827155&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=388f91a6-7bb8-43ac-e12e-72f5aa065ef0&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI 4G C7 ultra 3x S Line</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343820684&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=5&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=138687b3-05c3-d341-3a91-0d1ffe5cba7d&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343820684&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=3fbea479-7182-31d9-638a-7df45454fdc8&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E -Klasse Lim. E 200 CGI BlueEfficiency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=344376051&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=3fbea479-7182-31d9-638a-7df45454fdc8&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI ultra, 140kW</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348584861&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=5e985a50-3cd4-6cfa-63d2-fe026a9d8747&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348584861&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=3fbea479-7182-31d9-638a-7df45454fdc8&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 220 T CDI BE / COMAND/LED/UNFALLFREI !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=336199005&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=3fbea479-7182-31d9-638a-7df45454fdc8&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI 140kW ultra Avant - Garagenwagen</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349411137&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=5e985a50-3cd4-6cfa-63d2-fe026a9d8747&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349411137&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=3fbea479-7182-31d9-638a-7df45454fdc8&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI ultra *LED, Standheizung, MMI*</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346132107&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=5e985a50-3cd4-6cfa-63d2-fe026a9d8747&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346132107&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=next&amp;searchId=3fbea479-7182-31d9-638a-7df45454fdc8&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI ultra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=344286095&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=560414f4-556c-7cbc-3b5e-cd0b91ef3051&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Lim. 3.0 TDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=273589660&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=560414f4-556c-7cbc-3b5e-cd0b91ef3051&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI Sport Selection / Service neu</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349614033&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=5e985a50-3cd4-6cfa-63d2-fe026a9d8747&amp;ref=srp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audi A6 2.0 TDI ultra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=344286095&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=5e985a50-3cd4-6cfa-63d2-fe026a9d8747&amp;ref=srp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audi A6 Lim. 3.0 TDI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=273589660&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=5e985a50-3cd4-6cfa-63d2-fe026a9d8747&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349614033&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=560414f4-556c-7cbc-3b5e-cd0b91ef3051&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Limousine 2.0TDI,LEDER,NAVI,XENON,KAM,19"1HAN</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350149569&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=8b16021d-da80-a890-bdb3-34269f92b6fa&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350149569&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=560414f4-556c-7cbc-3b5e-cd0b91ef3051&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra,Cam,AHK,Xenon,el. Klappe</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349957880&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=8b16021d-da80-a890-bdb3-34269f92b6fa&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349957880&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=560414f4-556c-7cbc-3b5e-cd0b91ef3051&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI DPF - 19",MMI Navi Plus,Leder</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349497595&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=8b16021d-da80-a890-bdb3-34269f92b6fa&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349497595&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=10&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=b2691ef6-e8c9-c11e-0bea-f91b7d71ffe3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E -Klasse E 200 CGI BlueEfficiency NUR 36000 KM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=337332528&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=10&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=b2691ef6-e8c9-c11e-0bea-f91b7d71ffe3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra*190-PS*BIXEN*GARANTIE*PDC</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346886358&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=8b16021d-da80-a890-bdb3-34269f92b6fa&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346886358&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=10&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=b2691ef6-e8c9-c11e-0bea-f91b7d71ffe3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercedes-Benz E 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=342677066&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=10&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=b2691ef6-e8c9-c11e-0bea-f91b7d71ffe3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 2.0 TDI 140kW ultra Avant -</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350075379&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=8b16021d-da80-a890-bdb3-34269f92b6fa&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350075379&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=10&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=b2691ef6-e8c9-c11e-0bea-f91b7d71ffe3&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra AHK Navi</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345675589&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=8b16021d-da80-a890-bdb3-34269f92b6fa&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345675589&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=10&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=b2691ef6-e8c9-c11e-0bea-f91b7d71ffe3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339006956&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=11&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=adac1819-27ef-b572-8751-887a161f40ca&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349805224&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=496a54c7-0223-8856-d779-c51686c33a11&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349805224&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=11&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=adac1819-27ef-b572-8751-887a161f40ca&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra AHK, Navi, 4-Zonen Klima</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=315482173&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=496a54c7-0223-8856-d779-c51686c33a11&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=315482173&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=12&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=8cc4a849-2d1a-2902-1b89-0115348ae2a8&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Lim. 2.0 TFSI BOSE + AHK+SR/WR+MMI+DAB</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348276595&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=08de1f8a-3066-f9e1-4a1c-1ff3cd85e63d&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348276595&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=13&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=3ecea260-b952-4cfc-3ed5-03159520af2f&amp;ref=srp</x:t>
   </x:si>
   <x:si>
     <x:t>Audi A6 Avant 2.0 TDI ultra / 43.650km / 8-fach</x:t>
   </x:si>
   <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345992851&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=08de1f8a-3066-f9e1-4a1c-1ff3cd85e63d&amp;ref=srp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=342415589&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=10&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=40011ef1-e1dc-c924-ad24-7a02c09332a2&amp;ref=srp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=15&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=97e36dbd-8872-fce7-c69f-b45774295aef&amp;ref=srp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=20&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=a0842e40-b009-2fcc-154f-df04f50b39a7&amp;ref=srp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343786478&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=25&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=a4bb5412-a457-9cd3-bde6-f6a508254a8f&amp;ref=srp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343786478&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=29&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=a83a026e-7345-e6fd-3892-dae421c7a57d&amp;ref=srp</x:t>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345992851&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=13&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=3ecea260-b952-4cfc-3ed5-03159520af2f&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=342415589&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=15&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=c03e7cc3-9ea7-70ee-4f79-36fff44f1462&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=24&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=84b32856-e1b1-010d-b984-d073fd4e1e5d&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343786478&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=27&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=9284451c-51c1-703b-e9b2-a5b8b1a59f69&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339932008&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=29&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=ef7148f3-f6e8-7b4b-edc5-d314565b9061&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=30&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=1b560f93-c2d1-2c2a-9581-b7db05c6d993&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339006956&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=33&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=0027d40f-f838-6770-1f20-fb3444ff39e8&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339006956&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=38&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=f38aa028-0eb6-aba6-1f52-f1e88ef149b2&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339006956&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=44&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=09143b5c-a6ba-dbf4-d2ec-74454985f95b&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=45&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=f8a81aee-e053-9055-0db7-9cf35da4aff3&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=339006956&amp;categories=Cabrio&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=OffRoad&amp;categories=SmallCar&amp;categories=SportsCar&amp;categories=Van&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=17200&amp;makeModelVariant2.modelGroupId=11&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=46&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=afbcd369-1fca-a200-4985-01d373ea8862&amp;ref=srp</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -742,13 +847,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>19498</x:v>
+        <x:v>18900</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>2014</x:v>
+        <x:v>2011</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>87000</x:v>
+        <x:v>90910</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -759,13 +864,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>21900</x:v>
+        <x:v>28990</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>2014</x:v>
+        <x:v>2017</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>79900</x:v>
+        <x:v>93000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -776,13 +881,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>24850</x:v>
+        <x:v>16944</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2011</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>78733</x:v>
+        <x:v>87759</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -793,98 +898,98 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>25446</x:v>
+        <x:v>19498</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>77650</x:v>
+        <x:v>87000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>25446</x:v>
+        <x:v>21900</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>77650</x:v>
+        <x:v>79900</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>29990</x:v>
+        <x:v>28900</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>2015</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>98810</x:v>
+        <x:v>70777</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>20990</x:v>
+        <x:v>24850</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>2013</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>56000</x:v>
+        <x:v>78733</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>23490</x:v>
+        <x:v>25446</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
         <x:v>2016</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>58800</x:v>
+        <x:v>77650</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>23760</x:v>
+        <x:v>25446</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>2014</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>80730</x:v>
+        <x:v>77650</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -895,13 +1000,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>24950</x:v>
+        <x:v>13995</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>2014</x:v>
+        <x:v>2012</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>75300</x:v>
+        <x:v>99024</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -912,13 +1017,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>19950</x:v>
+        <x:v>29990</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>99061</x:v>
+        <x:v>98810</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -929,13 +1034,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>25810</x:v>
+        <x:v>20990</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2013</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>84759</x:v>
+        <x:v>56000</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -946,13 +1051,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>24750</x:v>
+        <x:v>23490</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>2017</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>70519</x:v>
+        <x:v>58800</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -963,13 +1068,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>26750</x:v>
+        <x:v>15750</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2012</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>84773</x:v>
+        <x:v>92000</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -980,13 +1085,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>21999</x:v>
+        <x:v>23760</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>2014</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>69900</x:v>
+        <x:v>80730</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -997,13 +1102,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>29978</x:v>
+        <x:v>15990</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>2017</x:v>
+        <x:v>2011</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>67314</x:v>
+        <x:v>75000</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -1014,13 +1119,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>20970</x:v>
+        <x:v>24950</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>2015</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>97219</x:v>
+        <x:v>75300</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1031,13 +1136,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>22760</x:v>
+        <x:v>19950</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>2017</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>62140</x:v>
+        <x:v>99061</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
@@ -1048,13 +1153,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>15000</x:v>
+        <x:v>25810</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>2012</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>99000</x:v>
+        <x:v>84759</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1065,13 +1170,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>17990</x:v>
+        <x:v>24750</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>2012</x:v>
+        <x:v>2017</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>87000</x:v>
+        <x:v>70519</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
@@ -1082,13 +1187,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>29990</x:v>
+        <x:v>26750</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>2018</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>66023</x:v>
+        <x:v>84773</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1099,13 +1204,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>23900</x:v>
+        <x:v>21999</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>2017</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>83000</x:v>
+        <x:v>69900</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
@@ -1116,13 +1221,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>26450</x:v>
+        <x:v>29978</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2017</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>54684</x:v>
+        <x:v>67314</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1133,13 +1238,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>26900</x:v>
+        <x:v>20970</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>75500</x:v>
+        <x:v>97219</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1150,13 +1255,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>22930</x:v>
+        <x:v>23990</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>89852</x:v>
+        <x:v>43000</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
@@ -1167,13 +1272,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>24950</x:v>
+        <x:v>22760</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2017</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>69381</x:v>
+        <x:v>62140</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1184,13 +1289,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>26250</x:v>
+        <x:v>15000</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2012</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>95500</x:v>
+        <x:v>99000</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
@@ -1201,13 +1306,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>25990</x:v>
+        <x:v>17990</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2012</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>63500</x:v>
+        <x:v>87000</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
@@ -1218,13 +1323,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>25990</x:v>
+        <x:v>29990</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>2018</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>53900</x:v>
+        <x:v>66023</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -1235,13 +1340,13 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>22500</x:v>
+        <x:v>23900</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2017</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>89000</x:v>
+        <x:v>83000</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1252,13 +1357,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>25870</x:v>
+        <x:v>26450</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>2014</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>57749</x:v>
+        <x:v>54684</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
@@ -1269,13 +1374,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>15850</x:v>
+        <x:v>26900</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>2013</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>91879</x:v>
+        <x:v>75500</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
@@ -1286,13 +1391,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>15990</x:v>
+        <x:v>22930</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>2012</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>82600</x:v>
+        <x:v>89852</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
@@ -1303,13 +1408,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>24890</x:v>
+        <x:v>24950</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>2015</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>87200</x:v>
+        <x:v>69381</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
@@ -1320,13 +1425,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>23800</x:v>
+        <x:v>26250</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>2015</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>86500</x:v>
+        <x:v>95500</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
@@ -1337,13 +1442,13 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>23250</x:v>
+        <x:v>25900</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>2015</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>90560</x:v>
+        <x:v>46000</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
@@ -1354,13 +1459,13 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>22900</x:v>
+        <x:v>25990</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>82000</x:v>
+        <x:v>63500</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
@@ -1371,319 +1476,676 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>21990</x:v>
+        <x:v>25990</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>2015</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>97100</x:v>
+        <x:v>53900</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>18990</x:v>
+        <x:v>25900</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>2013</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>90000</x:v>
+        <x:v>46000</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>24999</x:v>
+        <x:v>22500</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>2016</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>98500</x:v>
+        <x:v>89000</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>19399</x:v>
+        <x:v>25870</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>2013</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>70900</x:v>
+        <x:v>57749</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>25900</x:v>
+        <x:v>15850</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>2017</x:v>
+        <x:v>2013</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>97000</x:v>
+        <x:v>91879</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>25490</x:v>
+        <x:v>15990</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>2017</x:v>
+        <x:v>2012</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>82900</x:v>
+        <x:v>82600</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>17900</x:v>
+        <x:v>25990</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>2011</x:v>
+        <x:v>2017</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>81200</x:v>
+        <x:v>58600</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>23250</x:v>
+        <x:v>24890</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>2017</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>99999</x:v>
+        <x:v>87200</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>27800</x:v>
+        <x:v>23800</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>56500</x:v>
+        <x:v>86500</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>28300</x:v>
+        <x:v>16990</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2011</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>69000</x:v>
+        <x:v>67000</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>26900</x:v>
+        <x:v>23250</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>69000</x:v>
+        <x:v>90560</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>26999</x:v>
+        <x:v>19690</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>2016</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>43210</x:v>
+        <x:v>91547</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>22980</x:v>
+        <x:v>22900</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>2013</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>19100</x:v>
+        <x:v>82000</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>26950</x:v>
+        <x:v>21990</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>43650</x:v>
+        <x:v>97100</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>28000</x:v>
+        <x:v>24999</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>30050</x:v>
+        <x:v>98500</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>26490</x:v>
+        <x:v>19399</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2013</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>86174</x:v>
+        <x:v>70900</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>26490</x:v>
+        <x:v>18390</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2013</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>86174</x:v>
+        <x:v>90000</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="A57" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>26750</x:v>
+        <x:v>25900</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>2018</x:v>
+        <x:v>2017</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>84773</x:v>
+        <x:v>97000</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
+        <x:v>25490</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="n">
+        <x:v>2017</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="n">
+        <x:v>82900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:5">
+      <x:c r="A59" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="n">
+        <x:v>17900</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="n">
+        <x:v>2011</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="n">
+        <x:v>81200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:5">
+      <x:c r="A60" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="n">
+        <x:v>22990</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="n">
+        <x:v>2015</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="n">
+        <x:v>36000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:5">
+      <x:c r="A61" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="n">
+        <x:v>23250</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="n">
+        <x:v>2017</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="n">
+        <x:v>99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:5">
+      <x:c r="A62" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="n">
+        <x:v>26900</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="n">
+        <x:v>2017</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="n">
+        <x:v>39800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:5">
+      <x:c r="A63" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="n">
+        <x:v>27800</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="n">
+        <x:v>2016</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="n">
+        <x:v>56500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:5">
+      <x:c r="A64" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="n">
+        <x:v>28300</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="n">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="n">
+        <x:v>69000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:5">
+      <x:c r="A65" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="n">
+        <x:v>18900</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="n">
+        <x:v>2011</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="n">
+        <x:v>90910</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:5">
+      <x:c r="A66" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="n">
+        <x:v>26900</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="n">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="n">
+        <x:v>69000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:5">
+      <x:c r="A67" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="n">
+        <x:v>26999</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="n">
+        <x:v>2016</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="n">
+        <x:v>43210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:5">
+      <x:c r="A68" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="n">
+        <x:v>22980</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="n">
+        <x:v>2013</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="n">
+        <x:v>19100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:5">
+      <x:c r="A69" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="n">
+        <x:v>26950</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="n">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="n">
+        <x:v>43650</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:5">
+      <x:c r="A70" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="n">
+        <x:v>28000</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="n">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="n">
+        <x:v>30050</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:5">
+      <x:c r="A71" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="n">
+        <x:v>26490</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="n">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="n">
+        <x:v>86174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:5">
+      <x:c r="A72" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="n">
         <x:v>26750</x:v>
       </x:c>
-      <x:c r="D58" s="0" t="n">
+      <x:c r="D72" s="0" t="n">
         <x:v>2018</x:v>
       </x:c>
-      <x:c r="E58" s="0" t="n">
+      <x:c r="E72" s="0" t="n">
         <x:v>84773</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:5">
+      <x:c r="A73" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="n">
+        <x:v>25900</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="n">
+        <x:v>2015</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="n">
+        <x:v>46000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:5">
+      <x:c r="A74" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="n">
+        <x:v>26490</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="n">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="n">
+        <x:v>86174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:5">
+      <x:c r="A75" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="n">
+        <x:v>18900</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="n">
+        <x:v>2011</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="n">
+        <x:v>90910</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:5">
+      <x:c r="A76" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="n">
+        <x:v>18900</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="n">
+        <x:v>2011</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="n">
+        <x:v>90910</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:5">
+      <x:c r="A77" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="n">
+        <x:v>18900</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="n">
+        <x:v>2011</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="n">
+        <x:v>90910</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:5">
+      <x:c r="A78" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="n">
+        <x:v>26490</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="n">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="n">
+        <x:v>86174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:5">
+      <x:c r="A79" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="n">
+        <x:v>18900</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="n">
+        <x:v>2011</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="n">
+        <x:v>90910</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
